--- a/app/data/x_by_month.xlsx
+++ b/app/data/x_by_month.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,6 +360,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -385,10 +392,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
+      <c r="A2" s="2">
+        <v>43466</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -408,10 +413,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
+      <c r="A3" s="2">
+        <v>43466</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -431,10 +434,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
+      <c r="A4" s="2">
+        <v>43497</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -454,10 +455,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
+      <c r="A5" s="2">
+        <v>43497</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -477,10 +476,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
+      <c r="A6" s="2">
+        <v>43525</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -500,10 +497,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
+      <c r="A7" s="2">
+        <v>43525</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -523,10 +518,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
+      <c r="A8" s="2">
+        <v>43556</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -546,10 +539,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
+      <c r="A9" s="2">
+        <v>43556</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -569,10 +560,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
+      <c r="A10" s="2">
+        <v>43586</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -592,10 +581,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
+      <c r="A11" s="2">
+        <v>43586</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -615,10 +602,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
+      <c r="A12" s="2">
+        <v>43617</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -638,10 +623,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
+      <c r="A13" s="2">
+        <v>43617</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -661,10 +644,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
+      <c r="A14" s="2">
+        <v>43647</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -684,10 +665,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
+      <c r="A15" s="2">
+        <v>43647</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -707,10 +686,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
+      <c r="A16" s="2">
+        <v>43678</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -730,10 +707,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
+      <c r="A17" s="2">
+        <v>43678</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -753,10 +728,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
+      <c r="A18" s="2">
+        <v>43709</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -776,10 +749,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
+      <c r="A19" s="2">
+        <v>43709</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -799,10 +770,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
+      <c r="A20" s="2">
+        <v>43739</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -822,10 +791,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
+      <c r="A21" s="2">
+        <v>43739</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -845,10 +812,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
+      <c r="A22" s="2">
+        <v>43770</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -868,10 +833,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
+      <c r="A23" s="2">
+        <v>43770</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -891,10 +854,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
+      <c r="A24" s="2">
+        <v>43800</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -914,10 +875,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
+      <c r="A25" s="2">
+        <v>43800</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -937,10 +896,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
+      <c r="A26" s="2">
+        <v>43831</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -960,10 +917,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
+      <c r="A27" s="2">
+        <v>43831</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -983,10 +938,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
+      <c r="A28" s="2">
+        <v>43862</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1006,10 +959,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
+      <c r="A29" s="2">
+        <v>43862</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1029,10 +980,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
+      <c r="A30" s="2">
+        <v>43891</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1052,10 +1001,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
+      <c r="A31" s="2">
+        <v>43891</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1075,10 +1022,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
+      <c r="A32" s="2">
+        <v>43922</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1098,10 +1043,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
+      <c r="A33" s="2">
+        <v>43922</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1121,10 +1064,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
+      <c r="A34" s="2">
+        <v>43952</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1144,10 +1085,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
+      <c r="A35" s="2">
+        <v>43952</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1167,10 +1106,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
+      <c r="A36" s="2">
+        <v>43983</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1190,10 +1127,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
+      <c r="A37" s="2">
+        <v>43983</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1213,10 +1148,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
+      <c r="A38" s="2">
+        <v>44013</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1236,10 +1169,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
+      <c r="A39" s="2">
+        <v>44013</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1259,10 +1190,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
+      <c r="A40" s="2">
+        <v>44044</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1282,10 +1211,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
+      <c r="A41" s="2">
+        <v>44044</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1305,10 +1232,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
+      <c r="A42" s="2">
+        <v>44075</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1328,10 +1253,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
+      <c r="A43" s="2">
+        <v>44075</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1351,10 +1274,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
+      <c r="A44" s="2">
+        <v>44105</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1374,10 +1295,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
+      <c r="A45" s="2">
+        <v>44105</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1397,10 +1316,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
+      <c r="A46" s="2">
+        <v>44136</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1420,10 +1337,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
+      <c r="A47" s="2">
+        <v>44136</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1443,10 +1358,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
+      <c r="A48" s="2">
+        <v>44166</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1466,10 +1379,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
+      <c r="A49" s="2">
+        <v>44166</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1489,10 +1400,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
+      <c r="A50" s="2">
+        <v>44197</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1512,10 +1421,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
+      <c r="A51" s="2">
+        <v>44197</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1535,10 +1442,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
+      <c r="A52" s="2">
+        <v>44228</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1558,10 +1463,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
+      <c r="A53" s="2">
+        <v>44228</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1581,10 +1484,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
+      <c r="A54" s="2">
+        <v>44256</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1604,10 +1505,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
+      <c r="A55" s="2">
+        <v>44256</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1627,10 +1526,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
+      <c r="A56" s="2">
+        <v>44287</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1650,10 +1547,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
+      <c r="A57" s="2">
+        <v>44287</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1673,10 +1568,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
+      <c r="A58" s="2">
+        <v>44317</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1696,10 +1589,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
+      <c r="A59" s="2">
+        <v>44317</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1719,10 +1610,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
+      <c r="A60" s="2">
+        <v>44348</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1742,10 +1631,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
+      <c r="A61" s="2">
+        <v>44348</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1765,10 +1652,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
+      <c r="A62" s="2">
+        <v>44378</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1788,10 +1673,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
+      <c r="A63" s="2">
+        <v>44378</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1811,10 +1694,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
+      <c r="A64" s="2">
+        <v>44409</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1834,10 +1715,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
+      <c r="A65" s="2">
+        <v>44409</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1857,10 +1736,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
+      <c r="A66" s="2">
+        <v>44440</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1880,10 +1757,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
+      <c r="A67" s="2">
+        <v>44440</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1903,10 +1778,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
+      <c r="A68" s="2">
+        <v>44470</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1926,10 +1799,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
+      <c r="A69" s="2">
+        <v>44470</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1949,10 +1820,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
+      <c r="A70" s="2">
+        <v>44501</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1972,10 +1841,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
+      <c r="A71" s="2">
+        <v>44501</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1995,10 +1862,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
+      <c r="A72" s="2">
+        <v>44531</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2018,10 +1883,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
+      <c r="A73" s="2">
+        <v>44531</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2041,10 +1904,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2022-01</t>
-        </is>
+      <c r="A74" s="2">
+        <v>44562</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2064,10 +1925,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2022-01</t>
-        </is>
+      <c r="A75" s="2">
+        <v>44562</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2087,10 +1946,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2022-02</t>
-        </is>
+      <c r="A76" s="2">
+        <v>44593</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2110,10 +1967,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2022-02</t>
-        </is>
+      <c r="A77" s="2">
+        <v>44593</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2133,10 +1988,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
+      <c r="A78" s="2">
+        <v>44621</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2156,10 +2009,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
+      <c r="A79" s="2">
+        <v>44621</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2179,10 +2030,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
+      <c r="A80" s="2">
+        <v>44652</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2202,10 +2051,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
+      <c r="A81" s="2">
+        <v>44652</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2225,10 +2072,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2022-05</t>
-        </is>
+      <c r="A82" s="2">
+        <v>44682</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2248,10 +2093,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2022-05</t>
-        </is>
+      <c r="A83" s="2">
+        <v>44682</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -2271,10 +2114,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
+      <c r="A84" s="2">
+        <v>44713</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2294,10 +2135,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
+      <c r="A85" s="2">
+        <v>44713</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2317,10 +2156,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2022-07</t>
-        </is>
+      <c r="A86" s="2">
+        <v>44743</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2340,10 +2177,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2022-07</t>
-        </is>
+      <c r="A87" s="2">
+        <v>44743</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2363,10 +2198,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2022-08</t>
-        </is>
+      <c r="A88" s="2">
+        <v>44774</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2386,10 +2219,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2022-08</t>
-        </is>
+      <c r="A89" s="2">
+        <v>44774</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2409,10 +2240,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2022-09</t>
-        </is>
+      <c r="A90" s="2">
+        <v>44805</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2432,10 +2261,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2022-09</t>
-        </is>
+      <c r="A91" s="2">
+        <v>44805</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -2455,10 +2282,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+      <c r="A92" s="2">
+        <v>44835</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2478,10 +2303,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+      <c r="A93" s="2">
+        <v>44835</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -2501,10 +2324,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2022-11</t>
-        </is>
+      <c r="A94" s="2">
+        <v>44866</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2524,10 +2345,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2022-11</t>
-        </is>
+      <c r="A95" s="2">
+        <v>44866</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -2547,10 +2366,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
+      <c r="A96" s="2">
+        <v>44896</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2570,10 +2387,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
+      <c r="A97" s="2">
+        <v>44896</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2593,10 +2408,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
+      <c r="A98" s="2">
+        <v>43466</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2616,10 +2429,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
+      <c r="A99" s="2">
+        <v>43466</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2639,10 +2450,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
+      <c r="A100" s="2">
+        <v>43497</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2662,10 +2471,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
+      <c r="A101" s="2">
+        <v>43497</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -2685,10 +2492,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
+      <c r="A102" s="2">
+        <v>43525</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2708,10 +2513,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
+      <c r="A103" s="2">
+        <v>43525</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -2731,10 +2534,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
+      <c r="A104" s="2">
+        <v>43556</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2754,10 +2555,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
+      <c r="A105" s="2">
+        <v>43556</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -2777,10 +2576,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
+      <c r="A106" s="2">
+        <v>43586</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2800,10 +2597,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
+      <c r="A107" s="2">
+        <v>43586</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -2823,10 +2618,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
+      <c r="A108" s="2">
+        <v>43617</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2846,10 +2639,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
+      <c r="A109" s="2">
+        <v>43617</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -2869,10 +2660,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
+      <c r="A110" s="2">
+        <v>43647</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2892,10 +2681,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
+      <c r="A111" s="2">
+        <v>43647</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -2915,10 +2702,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
+      <c r="A112" s="2">
+        <v>43678</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2938,10 +2723,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
+      <c r="A113" s="2">
+        <v>43678</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -2961,10 +2744,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
+      <c r="A114" s="2">
+        <v>43709</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2984,10 +2765,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
+      <c r="A115" s="2">
+        <v>43709</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3007,10 +2786,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
+      <c r="A116" s="2">
+        <v>43739</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -3030,10 +2807,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
+      <c r="A117" s="2">
+        <v>43739</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3053,10 +2828,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
+      <c r="A118" s="2">
+        <v>43770</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -3076,10 +2849,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
+      <c r="A119" s="2">
+        <v>43770</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3099,10 +2870,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
+      <c r="A120" s="2">
+        <v>43800</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3122,10 +2891,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
+      <c r="A121" s="2">
+        <v>43800</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3145,10 +2912,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
+      <c r="A122" s="2">
+        <v>43831</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3168,10 +2933,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
+      <c r="A123" s="2">
+        <v>43831</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3191,10 +2954,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
+      <c r="A124" s="2">
+        <v>43862</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3214,10 +2975,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
+      <c r="A125" s="2">
+        <v>43862</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3237,10 +2996,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
+      <c r="A126" s="2">
+        <v>43891</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3260,10 +3017,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
+      <c r="A127" s="2">
+        <v>43891</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3283,10 +3038,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
+      <c r="A128" s="2">
+        <v>43922</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3306,10 +3059,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
+      <c r="A129" s="2">
+        <v>43922</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -3329,10 +3080,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
+      <c r="A130" s="2">
+        <v>43952</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3352,10 +3101,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
+      <c r="A131" s="2">
+        <v>43952</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -3375,10 +3122,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
+      <c r="A132" s="2">
+        <v>43983</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3398,10 +3143,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
+      <c r="A133" s="2">
+        <v>43983</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3421,10 +3164,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
+      <c r="A134" s="2">
+        <v>44013</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3444,10 +3185,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
+      <c r="A135" s="2">
+        <v>44013</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -3467,10 +3206,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
+      <c r="A136" s="2">
+        <v>44044</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3490,10 +3227,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
+      <c r="A137" s="2">
+        <v>44044</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3513,10 +3248,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
+      <c r="A138" s="2">
+        <v>44075</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3536,10 +3269,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
+      <c r="A139" s="2">
+        <v>44075</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3559,10 +3290,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
+      <c r="A140" s="2">
+        <v>44105</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3582,10 +3311,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
+      <c r="A141" s="2">
+        <v>44105</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3605,10 +3332,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
+      <c r="A142" s="2">
+        <v>44136</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3628,10 +3353,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
+      <c r="A143" s="2">
+        <v>44136</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -3651,10 +3374,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
+      <c r="A144" s="2">
+        <v>44166</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3674,10 +3395,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
+      <c r="A145" s="2">
+        <v>44166</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -3697,10 +3416,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
+      <c r="A146" s="2">
+        <v>44197</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3720,10 +3437,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
+      <c r="A147" s="2">
+        <v>44197</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -3743,10 +3458,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
+      <c r="A148" s="2">
+        <v>44228</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3766,10 +3479,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
+      <c r="A149" s="2">
+        <v>44228</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -3789,10 +3500,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
+      <c r="A150" s="2">
+        <v>44256</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3812,10 +3521,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
+      <c r="A151" s="2">
+        <v>44256</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -3835,10 +3542,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
+      <c r="A152" s="2">
+        <v>44287</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3858,10 +3563,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
+      <c r="A153" s="2">
+        <v>44287</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -3881,10 +3584,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
+      <c r="A154" s="2">
+        <v>44317</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3904,10 +3605,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
+      <c r="A155" s="2">
+        <v>44317</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -3927,10 +3626,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
+      <c r="A156" s="2">
+        <v>44348</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3950,10 +3647,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
+      <c r="A157" s="2">
+        <v>44348</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -3973,10 +3668,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
+      <c r="A158" s="2">
+        <v>44378</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3996,10 +3689,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
+      <c r="A159" s="2">
+        <v>44378</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4019,10 +3710,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
+      <c r="A160" s="2">
+        <v>44409</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4042,10 +3731,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
+      <c r="A161" s="2">
+        <v>44409</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4065,10 +3752,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
+      <c r="A162" s="2">
+        <v>44440</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4088,10 +3773,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
+      <c r="A163" s="2">
+        <v>44440</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4111,10 +3794,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
+      <c r="A164" s="2">
+        <v>44470</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4134,10 +3815,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
+      <c r="A165" s="2">
+        <v>44470</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -4157,10 +3836,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
+      <c r="A166" s="2">
+        <v>44501</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4180,10 +3857,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
+      <c r="A167" s="2">
+        <v>44501</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4203,10 +3878,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
+      <c r="A168" s="2">
+        <v>44531</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4226,10 +3899,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
+      <c r="A169" s="2">
+        <v>44531</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4249,10 +3920,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>2022-01</t>
-        </is>
+      <c r="A170" s="2">
+        <v>44562</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4272,10 +3941,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>2022-01</t>
-        </is>
+      <c r="A171" s="2">
+        <v>44562</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4295,10 +3962,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>2022-02</t>
-        </is>
+      <c r="A172" s="2">
+        <v>44593</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4318,10 +3983,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>2022-02</t>
-        </is>
+      <c r="A173" s="2">
+        <v>44593</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -4341,10 +4004,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
+      <c r="A174" s="2">
+        <v>44621</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4364,10 +4025,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
+      <c r="A175" s="2">
+        <v>44621</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -4387,10 +4046,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
+      <c r="A176" s="2">
+        <v>44652</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4410,10 +4067,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
+      <c r="A177" s="2">
+        <v>44652</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4433,10 +4088,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>2022-05</t>
-        </is>
+      <c r="A178" s="2">
+        <v>44682</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4456,10 +4109,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2022-05</t>
-        </is>
+      <c r="A179" s="2">
+        <v>44682</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -4479,10 +4130,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
+      <c r="A180" s="2">
+        <v>44713</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4502,10 +4151,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
+      <c r="A181" s="2">
+        <v>44713</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -4525,10 +4172,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>2022-07</t>
-        </is>
+      <c r="A182" s="2">
+        <v>44743</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4548,10 +4193,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>2022-07</t>
-        </is>
+      <c r="A183" s="2">
+        <v>44743</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4571,10 +4214,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2022-08</t>
-        </is>
+      <c r="A184" s="2">
+        <v>44774</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4594,10 +4235,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>2022-08</t>
-        </is>
+      <c r="A185" s="2">
+        <v>44774</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -4617,10 +4256,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2022-09</t>
-        </is>
+      <c r="A186" s="2">
+        <v>44805</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4640,10 +4277,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>2022-09</t>
-        </is>
+      <c r="A187" s="2">
+        <v>44805</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4663,10 +4298,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+      <c r="A188" s="2">
+        <v>44835</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4686,10 +4319,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+      <c r="A189" s="2">
+        <v>44835</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4709,10 +4340,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2022-11</t>
-        </is>
+      <c r="A190" s="2">
+        <v>44866</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4732,10 +4361,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>2022-11</t>
-        </is>
+      <c r="A191" s="2">
+        <v>44866</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -4755,10 +4382,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
+      <c r="A192" s="2">
+        <v>44896</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4778,10 +4403,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
+      <c r="A193" s="2">
+        <v>44896</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4801,10 +4424,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
+      <c r="A194" s="2">
+        <v>43466</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4824,10 +4445,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
+      <c r="A195" s="2">
+        <v>43466</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -4847,10 +4466,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
+      <c r="A196" s="2">
+        <v>43497</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -4870,10 +4487,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
+      <c r="A197" s="2">
+        <v>43497</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4893,10 +4508,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
+      <c r="A198" s="2">
+        <v>43525</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4916,10 +4529,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
+      <c r="A199" s="2">
+        <v>43525</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -4939,10 +4550,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
+      <c r="A200" s="2">
+        <v>43556</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -4962,10 +4571,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
+      <c r="A201" s="2">
+        <v>43556</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4985,10 +4592,8 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
+      <c r="A202" s="2">
+        <v>43586</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -5008,10 +4613,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
+      <c r="A203" s="2">
+        <v>43586</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5031,10 +4634,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
+      <c r="A204" s="2">
+        <v>43617</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -5054,10 +4655,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
+      <c r="A205" s="2">
+        <v>43617</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5077,10 +4676,8 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
+      <c r="A206" s="2">
+        <v>43647</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -5100,10 +4697,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
+      <c r="A207" s="2">
+        <v>43647</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5123,10 +4718,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
+      <c r="A208" s="2">
+        <v>43678</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -5146,10 +4739,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
+      <c r="A209" s="2">
+        <v>43678</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5169,10 +4760,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
+      <c r="A210" s="2">
+        <v>43709</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -5192,10 +4781,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
+      <c r="A211" s="2">
+        <v>43709</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -5215,10 +4802,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
+      <c r="A212" s="2">
+        <v>43739</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -5238,10 +4823,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
+      <c r="A213" s="2">
+        <v>43739</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -5261,10 +4844,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
+      <c r="A214" s="2">
+        <v>43770</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -5284,10 +4865,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
+      <c r="A215" s="2">
+        <v>43770</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5307,10 +4886,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
+      <c r="A216" s="2">
+        <v>43800</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -5330,10 +4907,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
+      <c r="A217" s="2">
+        <v>43800</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5353,10 +4928,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
+      <c r="A218" s="2">
+        <v>43831</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -5376,10 +4949,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
+      <c r="A219" s="2">
+        <v>43831</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5399,10 +4970,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
+      <c r="A220" s="2">
+        <v>43862</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -5422,10 +4991,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
+      <c r="A221" s="2">
+        <v>43862</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5445,10 +5012,8 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
+      <c r="A222" s="2">
+        <v>43891</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -5468,10 +5033,8 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
+      <c r="A223" s="2">
+        <v>43891</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -5491,10 +5054,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
+      <c r="A224" s="2">
+        <v>43922</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -5514,10 +5075,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
+      <c r="A225" s="2">
+        <v>43922</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5537,10 +5096,8 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
+      <c r="A226" s="2">
+        <v>43952</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -5560,10 +5117,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
+      <c r="A227" s="2">
+        <v>43952</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5583,10 +5138,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
+      <c r="A228" s="2">
+        <v>43983</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -5606,10 +5159,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
+      <c r="A229" s="2">
+        <v>43983</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -5629,10 +5180,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
+      <c r="A230" s="2">
+        <v>44013</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -5652,10 +5201,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
+      <c r="A231" s="2">
+        <v>44013</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5675,10 +5222,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
+      <c r="A232" s="2">
+        <v>44044</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -5698,10 +5243,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
+      <c r="A233" s="2">
+        <v>44044</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5721,10 +5264,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
+      <c r="A234" s="2">
+        <v>44075</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -5744,10 +5285,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
+      <c r="A235" s="2">
+        <v>44075</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5767,10 +5306,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
+      <c r="A236" s="2">
+        <v>44105</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -5790,10 +5327,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
+      <c r="A237" s="2">
+        <v>44105</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5813,10 +5348,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
+      <c r="A238" s="2">
+        <v>44136</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -5836,10 +5369,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
+      <c r="A239" s="2">
+        <v>44136</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -5859,10 +5390,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
+      <c r="A240" s="2">
+        <v>44166</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -5882,10 +5411,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
+      <c r="A241" s="2">
+        <v>44166</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -5905,10 +5432,8 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
+      <c r="A242" s="2">
+        <v>44197</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -5928,10 +5453,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
+      <c r="A243" s="2">
+        <v>44197</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -5951,10 +5474,8 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
+      <c r="A244" s="2">
+        <v>44228</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -5974,10 +5495,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
+      <c r="A245" s="2">
+        <v>44228</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -5997,10 +5516,8 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
+      <c r="A246" s="2">
+        <v>44256</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -6020,10 +5537,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
+      <c r="A247" s="2">
+        <v>44256</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -6043,10 +5558,8 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
+      <c r="A248" s="2">
+        <v>44287</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -6066,10 +5579,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
+      <c r="A249" s="2">
+        <v>44287</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -6089,10 +5600,8 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
+      <c r="A250" s="2">
+        <v>44317</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -6112,10 +5621,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
+      <c r="A251" s="2">
+        <v>44317</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -6135,10 +5642,8 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
+      <c r="A252" s="2">
+        <v>44348</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -6158,10 +5663,8 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
+      <c r="A253" s="2">
+        <v>44348</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -6181,10 +5684,8 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
+      <c r="A254" s="2">
+        <v>44378</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -6204,10 +5705,8 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
+      <c r="A255" s="2">
+        <v>44378</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -6227,10 +5726,8 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
+      <c r="A256" s="2">
+        <v>44409</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -6250,10 +5747,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
+      <c r="A257" s="2">
+        <v>44409</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -6273,10 +5768,8 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
+      <c r="A258" s="2">
+        <v>44440</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -6296,10 +5789,8 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
+      <c r="A259" s="2">
+        <v>44440</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -6319,10 +5810,8 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
+      <c r="A260" s="2">
+        <v>44470</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -6342,10 +5831,8 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
+      <c r="A261" s="2">
+        <v>44470</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -6365,10 +5852,8 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
+      <c r="A262" s="2">
+        <v>44501</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -6388,10 +5873,8 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
+      <c r="A263" s="2">
+        <v>44501</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -6411,10 +5894,8 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
+      <c r="A264" s="2">
+        <v>44531</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -6434,10 +5915,8 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
+      <c r="A265" s="2">
+        <v>44531</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -6457,10 +5936,8 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>2022-01</t>
-        </is>
+      <c r="A266" s="2">
+        <v>44562</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -6480,10 +5957,8 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>2022-01</t>
-        </is>
+      <c r="A267" s="2">
+        <v>44562</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -6503,10 +5978,8 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>2022-02</t>
-        </is>
+      <c r="A268" s="2">
+        <v>44593</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -6526,10 +5999,8 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>2022-02</t>
-        </is>
+      <c r="A269" s="2">
+        <v>44593</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -6549,10 +6020,8 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
+      <c r="A270" s="2">
+        <v>44621</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -6572,10 +6041,8 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
+      <c r="A271" s="2">
+        <v>44621</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -6595,10 +6062,8 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
+      <c r="A272" s="2">
+        <v>44652</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -6618,10 +6083,8 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
+      <c r="A273" s="2">
+        <v>44652</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6641,10 +6104,8 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>2022-05</t>
-        </is>
+      <c r="A274" s="2">
+        <v>44682</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -6664,10 +6125,8 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>2022-05</t>
-        </is>
+      <c r="A275" s="2">
+        <v>44682</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -6687,10 +6146,8 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
+      <c r="A276" s="2">
+        <v>44713</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -6710,10 +6167,8 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
+      <c r="A277" s="2">
+        <v>44713</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -6733,10 +6188,8 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>2022-07</t>
-        </is>
+      <c r="A278" s="2">
+        <v>44743</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -6756,10 +6209,8 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>2022-07</t>
-        </is>
+      <c r="A279" s="2">
+        <v>44743</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -6779,10 +6230,8 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>2022-08</t>
-        </is>
+      <c r="A280" s="2">
+        <v>44774</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -6802,10 +6251,8 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>2022-08</t>
-        </is>
+      <c r="A281" s="2">
+        <v>44774</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -6825,10 +6272,8 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>2022-09</t>
-        </is>
+      <c r="A282" s="2">
+        <v>44805</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -6848,10 +6293,8 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>2022-09</t>
-        </is>
+      <c r="A283" s="2">
+        <v>44805</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -6871,10 +6314,8 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+      <c r="A284" s="2">
+        <v>44835</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -6894,10 +6335,8 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+      <c r="A285" s="2">
+        <v>44835</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -6917,10 +6356,8 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>2022-11</t>
-        </is>
+      <c r="A286" s="2">
+        <v>44866</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -6940,10 +6377,8 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>2022-11</t>
-        </is>
+      <c r="A287" s="2">
+        <v>44866</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -6963,10 +6398,8 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
+      <c r="A288" s="2">
+        <v>44896</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -6986,10 +6419,8 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
+      <c r="A289" s="2">
+        <v>44896</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -7009,10 +6440,8 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
+      <c r="A290" s="2">
+        <v>43466</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -7032,10 +6461,8 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
+      <c r="A291" s="2">
+        <v>43466</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -7055,10 +6482,8 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
+      <c r="A292" s="2">
+        <v>43497</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -7078,10 +6503,8 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
+      <c r="A293" s="2">
+        <v>43497</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -7101,10 +6524,8 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
+      <c r="A294" s="2">
+        <v>43525</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -7124,10 +6545,8 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
+      <c r="A295" s="2">
+        <v>43525</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -7147,10 +6566,8 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
+      <c r="A296" s="2">
+        <v>43556</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -7170,10 +6587,8 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
+      <c r="A297" s="2">
+        <v>43556</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -7193,10 +6608,8 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
+      <c r="A298" s="2">
+        <v>43586</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -7216,10 +6629,8 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
+      <c r="A299" s="2">
+        <v>43586</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -7239,10 +6650,8 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
+      <c r="A300" s="2">
+        <v>43617</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -7262,10 +6671,8 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
+      <c r="A301" s="2">
+        <v>43617</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -7285,10 +6692,8 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
+      <c r="A302" s="2">
+        <v>43647</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -7308,10 +6713,8 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
+      <c r="A303" s="2">
+        <v>43647</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -7331,10 +6734,8 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
+      <c r="A304" s="2">
+        <v>43678</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -7354,10 +6755,8 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
+      <c r="A305" s="2">
+        <v>43678</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -7377,10 +6776,8 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
+      <c r="A306" s="2">
+        <v>43709</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -7400,10 +6797,8 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
+      <c r="A307" s="2">
+        <v>43709</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -7423,10 +6818,8 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
+      <c r="A308" s="2">
+        <v>43739</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -7446,10 +6839,8 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
+      <c r="A309" s="2">
+        <v>43739</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -7469,10 +6860,8 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
+      <c r="A310" s="2">
+        <v>43770</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -7492,10 +6881,8 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
+      <c r="A311" s="2">
+        <v>43770</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -7515,10 +6902,8 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
+      <c r="A312" s="2">
+        <v>43800</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -7538,10 +6923,8 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
+      <c r="A313" s="2">
+        <v>43800</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -7561,10 +6944,8 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
+      <c r="A314" s="2">
+        <v>43831</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -7584,10 +6965,8 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
+      <c r="A315" s="2">
+        <v>43831</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -7607,10 +6986,8 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
+      <c r="A316" s="2">
+        <v>43862</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -7630,10 +7007,8 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
+      <c r="A317" s="2">
+        <v>43862</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -7653,10 +7028,8 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
+      <c r="A318" s="2">
+        <v>43891</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -7676,10 +7049,8 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
+      <c r="A319" s="2">
+        <v>43891</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -7699,10 +7070,8 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
+      <c r="A320" s="2">
+        <v>43922</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -7722,10 +7091,8 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
+      <c r="A321" s="2">
+        <v>43922</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -7745,10 +7112,8 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
+      <c r="A322" s="2">
+        <v>43952</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -7768,10 +7133,8 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
+      <c r="A323" s="2">
+        <v>43952</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -7791,10 +7154,8 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
+      <c r="A324" s="2">
+        <v>43983</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -7814,10 +7175,8 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
+      <c r="A325" s="2">
+        <v>43983</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -7837,10 +7196,8 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
+      <c r="A326" s="2">
+        <v>44013</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -7860,10 +7217,8 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
+      <c r="A327" s="2">
+        <v>44013</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -7883,10 +7238,8 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
+      <c r="A328" s="2">
+        <v>44044</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -7906,10 +7259,8 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
+      <c r="A329" s="2">
+        <v>44044</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -7929,10 +7280,8 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
+      <c r="A330" s="2">
+        <v>44075</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -7952,10 +7301,8 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
+      <c r="A331" s="2">
+        <v>44075</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -7975,10 +7322,8 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
+      <c r="A332" s="2">
+        <v>44105</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -7998,10 +7343,8 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
+      <c r="A333" s="2">
+        <v>44105</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -8021,10 +7364,8 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
+      <c r="A334" s="2">
+        <v>44136</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -8044,10 +7385,8 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
+      <c r="A335" s="2">
+        <v>44136</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -8067,10 +7406,8 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
+      <c r="A336" s="2">
+        <v>44166</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -8090,10 +7427,8 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
+      <c r="A337" s="2">
+        <v>44166</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -8113,10 +7448,8 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
+      <c r="A338" s="2">
+        <v>44197</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -8136,10 +7469,8 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
+      <c r="A339" s="2">
+        <v>44197</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -8159,10 +7490,8 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
+      <c r="A340" s="2">
+        <v>44228</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -8182,10 +7511,8 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
+      <c r="A341" s="2">
+        <v>44228</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -8205,10 +7532,8 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
+      <c r="A342" s="2">
+        <v>44256</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -8228,10 +7553,8 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
+      <c r="A343" s="2">
+        <v>44256</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -8251,10 +7574,8 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
+      <c r="A344" s="2">
+        <v>44287</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -8274,10 +7595,8 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
+      <c r="A345" s="2">
+        <v>44287</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -8297,10 +7616,8 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
+      <c r="A346" s="2">
+        <v>44317</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -8320,10 +7637,8 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
+      <c r="A347" s="2">
+        <v>44317</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -8343,10 +7658,8 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
+      <c r="A348" s="2">
+        <v>44348</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -8366,10 +7679,8 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
+      <c r="A349" s="2">
+        <v>44348</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -8389,10 +7700,8 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
+      <c r="A350" s="2">
+        <v>44378</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -8412,10 +7721,8 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
+      <c r="A351" s="2">
+        <v>44378</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -8435,10 +7742,8 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
+      <c r="A352" s="2">
+        <v>44409</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -8458,10 +7763,8 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
+      <c r="A353" s="2">
+        <v>44409</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -8481,10 +7784,8 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
+      <c r="A354" s="2">
+        <v>44440</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -8504,10 +7805,8 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
+      <c r="A355" s="2">
+        <v>44440</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -8527,10 +7826,8 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
+      <c r="A356" s="2">
+        <v>44470</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -8550,10 +7847,8 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
+      <c r="A357" s="2">
+        <v>44470</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -8573,10 +7868,8 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
+      <c r="A358" s="2">
+        <v>44501</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -8596,10 +7889,8 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
+      <c r="A359" s="2">
+        <v>44501</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -8619,10 +7910,8 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
+      <c r="A360" s="2">
+        <v>44531</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -8642,10 +7931,8 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
+      <c r="A361" s="2">
+        <v>44531</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -8665,10 +7952,8 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>2022-01</t>
-        </is>
+      <c r="A362" s="2">
+        <v>44562</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -8688,10 +7973,8 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>2022-01</t>
-        </is>
+      <c r="A363" s="2">
+        <v>44562</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -8711,10 +7994,8 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>2022-02</t>
-        </is>
+      <c r="A364" s="2">
+        <v>44593</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -8734,10 +8015,8 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>2022-02</t>
-        </is>
+      <c r="A365" s="2">
+        <v>44593</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -8757,10 +8036,8 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
+      <c r="A366" s="2">
+        <v>44621</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -8780,10 +8057,8 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
+      <c r="A367" s="2">
+        <v>44621</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -8803,10 +8078,8 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
+      <c r="A368" s="2">
+        <v>44652</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -8826,10 +8099,8 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
+      <c r="A369" s="2">
+        <v>44652</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -8849,10 +8120,8 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>2022-05</t>
-        </is>
+      <c r="A370" s="2">
+        <v>44682</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -8872,10 +8141,8 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>2022-05</t>
-        </is>
+      <c r="A371" s="2">
+        <v>44682</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -8895,10 +8162,8 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
+      <c r="A372" s="2">
+        <v>44713</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -8918,10 +8183,8 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
+      <c r="A373" s="2">
+        <v>44713</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -8941,10 +8204,8 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>2022-07</t>
-        </is>
+      <c r="A374" s="2">
+        <v>44743</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -8964,10 +8225,8 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>2022-07</t>
-        </is>
+      <c r="A375" s="2">
+        <v>44743</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -8987,10 +8246,8 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>2022-08</t>
-        </is>
+      <c r="A376" s="2">
+        <v>44774</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -9010,10 +8267,8 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>2022-08</t>
-        </is>
+      <c r="A377" s="2">
+        <v>44774</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -9033,10 +8288,8 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>2022-09</t>
-        </is>
+      <c r="A378" s="2">
+        <v>44805</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -9056,10 +8309,8 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>2022-09</t>
-        </is>
+      <c r="A379" s="2">
+        <v>44805</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -9079,10 +8330,8 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+      <c r="A380" s="2">
+        <v>44835</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -9102,10 +8351,8 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+      <c r="A381" s="2">
+        <v>44835</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -9125,10 +8372,8 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>2022-11</t>
-        </is>
+      <c r="A382" s="2">
+        <v>44866</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -9148,10 +8393,8 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>2022-11</t>
-        </is>
+      <c r="A383" s="2">
+        <v>44866</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -9171,10 +8414,8 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
+      <c r="A384" s="2">
+        <v>44896</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -9194,10 +8435,8 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
+      <c r="A385" s="2">
+        <v>44896</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -9217,10 +8456,8 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
+      <c r="A386" s="2">
+        <v>43466</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -9240,10 +8477,8 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
+      <c r="A387" s="2">
+        <v>43466</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -9263,10 +8498,8 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
+      <c r="A388" s="2">
+        <v>43497</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -9286,10 +8519,8 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
+      <c r="A389" s="2">
+        <v>43497</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -9309,10 +8540,8 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
+      <c r="A390" s="2">
+        <v>43525</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -9332,10 +8561,8 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
+      <c r="A391" s="2">
+        <v>43525</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -9355,10 +8582,8 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
+      <c r="A392" s="2">
+        <v>43556</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -9378,10 +8603,8 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
+      <c r="A393" s="2">
+        <v>43556</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -9401,10 +8624,8 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
+      <c r="A394" s="2">
+        <v>43586</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -9424,10 +8645,8 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
+      <c r="A395" s="2">
+        <v>43586</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -9447,10 +8666,8 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
+      <c r="A396" s="2">
+        <v>43617</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -9470,10 +8687,8 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
+      <c r="A397" s="2">
+        <v>43617</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -9493,10 +8708,8 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
+      <c r="A398" s="2">
+        <v>43647</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -9516,10 +8729,8 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
+      <c r="A399" s="2">
+        <v>43647</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -9539,10 +8750,8 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
+      <c r="A400" s="2">
+        <v>43678</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -9562,10 +8771,8 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
+      <c r="A401" s="2">
+        <v>43678</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -9585,10 +8792,8 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
+      <c r="A402" s="2">
+        <v>43709</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -9608,10 +8813,8 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
+      <c r="A403" s="2">
+        <v>43709</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -9631,10 +8834,8 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
+      <c r="A404" s="2">
+        <v>43739</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -9654,10 +8855,8 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
+      <c r="A405" s="2">
+        <v>43739</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -9677,10 +8876,8 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
+      <c r="A406" s="2">
+        <v>43770</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -9700,10 +8897,8 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
+      <c r="A407" s="2">
+        <v>43770</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -9723,10 +8918,8 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
+      <c r="A408" s="2">
+        <v>43800</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -9746,10 +8939,8 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
+      <c r="A409" s="2">
+        <v>43800</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -9769,10 +8960,8 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
+      <c r="A410" s="2">
+        <v>43831</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -9792,10 +8981,8 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
+      <c r="A411" s="2">
+        <v>43831</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -9815,10 +9002,8 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
+      <c r="A412" s="2">
+        <v>43862</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -9838,10 +9023,8 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
+      <c r="A413" s="2">
+        <v>43862</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -9861,10 +9044,8 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
+      <c r="A414" s="2">
+        <v>43891</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -9884,10 +9065,8 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
+      <c r="A415" s="2">
+        <v>43891</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -9907,10 +9086,8 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
+      <c r="A416" s="2">
+        <v>43922</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -9930,10 +9107,8 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
+      <c r="A417" s="2">
+        <v>43922</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -9953,10 +9128,8 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
+      <c r="A418" s="2">
+        <v>43952</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -9976,10 +9149,8 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
+      <c r="A419" s="2">
+        <v>43952</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -9999,10 +9170,8 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
+      <c r="A420" s="2">
+        <v>43983</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -10022,10 +9191,8 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
+      <c r="A421" s="2">
+        <v>43983</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -10045,10 +9212,8 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
+      <c r="A422" s="2">
+        <v>44013</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -10068,10 +9233,8 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
+      <c r="A423" s="2">
+        <v>44013</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -10091,10 +9254,8 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
+      <c r="A424" s="2">
+        <v>44044</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -10114,10 +9275,8 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
+      <c r="A425" s="2">
+        <v>44044</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -10137,10 +9296,8 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
+      <c r="A426" s="2">
+        <v>44075</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -10160,10 +9317,8 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
+      <c r="A427" s="2">
+        <v>44075</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -10183,10 +9338,8 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
+      <c r="A428" s="2">
+        <v>44105</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -10206,10 +9359,8 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
+      <c r="A429" s="2">
+        <v>44105</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -10229,10 +9380,8 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
+      <c r="A430" s="2">
+        <v>44136</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -10252,10 +9401,8 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
+      <c r="A431" s="2">
+        <v>44136</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -10275,10 +9422,8 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
+      <c r="A432" s="2">
+        <v>44166</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -10298,10 +9443,8 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
+      <c r="A433" s="2">
+        <v>44166</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -10321,10 +9464,8 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
+      <c r="A434" s="2">
+        <v>44197</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -10344,10 +9485,8 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
+      <c r="A435" s="2">
+        <v>44197</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -10367,10 +9506,8 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
+      <c r="A436" s="2">
+        <v>44228</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -10390,10 +9527,8 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
+      <c r="A437" s="2">
+        <v>44228</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -10413,10 +9548,8 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
+      <c r="A438" s="2">
+        <v>44256</v>
       </c>
       <c r="B438">
         <v>0</v>
@@ -10436,10 +9569,8 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
+      <c r="A439" s="2">
+        <v>44256</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -10459,10 +9590,8 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
+      <c r="A440" s="2">
+        <v>44287</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -10482,10 +9611,8 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
+      <c r="A441" s="2">
+        <v>44287</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -10505,10 +9632,8 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
+      <c r="A442" s="2">
+        <v>44317</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -10528,10 +9653,8 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
+      <c r="A443" s="2">
+        <v>44317</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -10551,10 +9674,8 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
+      <c r="A444" s="2">
+        <v>44348</v>
       </c>
       <c r="B444">
         <v>0</v>
@@ -10574,10 +9695,8 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
+      <c r="A445" s="2">
+        <v>44348</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -10597,10 +9716,8 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
+      <c r="A446" s="2">
+        <v>44378</v>
       </c>
       <c r="B446">
         <v>0</v>
@@ -10620,10 +9737,8 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
+      <c r="A447" s="2">
+        <v>44378</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -10643,10 +9758,8 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
+      <c r="A448" s="2">
+        <v>44409</v>
       </c>
       <c r="B448">
         <v>0</v>
@@ -10666,10 +9779,8 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
+      <c r="A449" s="2">
+        <v>44409</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -10689,10 +9800,8 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
+      <c r="A450" s="2">
+        <v>44440</v>
       </c>
       <c r="B450">
         <v>0</v>
@@ -10712,10 +9821,8 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
+      <c r="A451" s="2">
+        <v>44440</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -10735,10 +9842,8 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
+      <c r="A452" s="2">
+        <v>44470</v>
       </c>
       <c r="B452">
         <v>0</v>
@@ -10758,10 +9863,8 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
+      <c r="A453" s="2">
+        <v>44470</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -10781,10 +9884,8 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
+      <c r="A454" s="2">
+        <v>44501</v>
       </c>
       <c r="B454">
         <v>0</v>
@@ -10804,10 +9905,8 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
+      <c r="A455" s="2">
+        <v>44501</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -10827,10 +9926,8 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
+      <c r="A456" s="2">
+        <v>44531</v>
       </c>
       <c r="B456">
         <v>0</v>
@@ -10850,10 +9947,8 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
+      <c r="A457" s="2">
+        <v>44531</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -10873,10 +9968,8 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>2022-01</t>
-        </is>
+      <c r="A458" s="2">
+        <v>44562</v>
       </c>
       <c r="B458">
         <v>0</v>
@@ -10896,10 +9989,8 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>2022-01</t>
-        </is>
+      <c r="A459" s="2">
+        <v>44562</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -10919,10 +10010,8 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>2022-02</t>
-        </is>
+      <c r="A460" s="2">
+        <v>44593</v>
       </c>
       <c r="B460">
         <v>0</v>
@@ -10942,10 +10031,8 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>2022-02</t>
-        </is>
+      <c r="A461" s="2">
+        <v>44593</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -10965,10 +10052,8 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
+      <c r="A462" s="2">
+        <v>44621</v>
       </c>
       <c r="B462">
         <v>0</v>
@@ -10988,10 +10073,8 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
+      <c r="A463" s="2">
+        <v>44621</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -11011,10 +10094,8 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
+      <c r="A464" s="2">
+        <v>44652</v>
       </c>
       <c r="B464">
         <v>0</v>
@@ -11034,10 +10115,8 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
+      <c r="A465" s="2">
+        <v>44652</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -11057,10 +10136,8 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>2022-05</t>
-        </is>
+      <c r="A466" s="2">
+        <v>44682</v>
       </c>
       <c r="B466">
         <v>0</v>
@@ -11080,10 +10157,8 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>2022-05</t>
-        </is>
+      <c r="A467" s="2">
+        <v>44682</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -11103,10 +10178,8 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
+      <c r="A468" s="2">
+        <v>44713</v>
       </c>
       <c r="B468">
         <v>0</v>
@@ -11126,10 +10199,8 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
+      <c r="A469" s="2">
+        <v>44713</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -11149,10 +10220,8 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>2022-07</t>
-        </is>
+      <c r="A470" s="2">
+        <v>44743</v>
       </c>
       <c r="B470">
         <v>0</v>
@@ -11172,10 +10241,8 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>2022-07</t>
-        </is>
+      <c r="A471" s="2">
+        <v>44743</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -11195,10 +10262,8 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>2022-08</t>
-        </is>
+      <c r="A472" s="2">
+        <v>44774</v>
       </c>
       <c r="B472">
         <v>0</v>
@@ -11218,10 +10283,8 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>2022-08</t>
-        </is>
+      <c r="A473" s="2">
+        <v>44774</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -11241,10 +10304,8 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>2022-09</t>
-        </is>
+      <c r="A474" s="2">
+        <v>44805</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -11264,10 +10325,8 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>2022-09</t>
-        </is>
+      <c r="A475" s="2">
+        <v>44805</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -11287,10 +10346,8 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+      <c r="A476" s="2">
+        <v>44835</v>
       </c>
       <c r="B476">
         <v>0</v>
@@ -11310,10 +10367,8 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+      <c r="A477" s="2">
+        <v>44835</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -11333,10 +10388,8 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>2022-11</t>
-        </is>
+      <c r="A478" s="2">
+        <v>44866</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -11356,10 +10409,8 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>2022-11</t>
-        </is>
+      <c r="A479" s="2">
+        <v>44866</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -11379,10 +10430,8 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
+      <c r="A480" s="2">
+        <v>44896</v>
       </c>
       <c r="B480">
         <v>0</v>
@@ -11402,10 +10451,8 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
+      <c r="A481" s="2">
+        <v>44896</v>
       </c>
       <c r="B481">
         <v>1</v>
